--- a/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
@@ -955,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>Mat</t>
   </si>
@@ -76,49 +76,133 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>OROPEZA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>ESPINOZA</t>
-  </si>
-  <si>
-    <t>ZAVALETA</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>VELASCO</t>
-  </si>
-  <si>
-    <t>ERIK JAIR</t>
-  </si>
-  <si>
-    <t>SAUL BRANDON</t>
-  </si>
-  <si>
-    <t>CARLOS ROMAN</t>
-  </si>
-  <si>
-    <t>MARIBEL</t>
-  </si>
-  <si>
-    <t>BRENDA</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ARGAES</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>AMECA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ROSENDO DANIEL</t>
+  </si>
+  <si>
+    <t>LUIS ANTONIO</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>GAMADIEL ABRAHAM</t>
+  </si>
+  <si>
+    <t>ANGEL ISMAEL</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
   </si>
 </sst>
 </file>
@@ -902,7 +986,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,16 +1021,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920176</v>
+        <v>18330051920143</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -960,16 +1044,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920177</v>
+        <v>18330051920141</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -978,76 +1062,306 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920384</v>
+        <v>18330051920138</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920394</v>
+        <v>18330051920146</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>17330051920470</v>
+        <v>18330051920148</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920162</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920166</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920178</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330051920181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920182</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>Mat</t>
   </si>
@@ -91,6 +91,12 @@
     <t>CERON</t>
   </si>
   <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>CRISTOBAL</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>VALLEJO</t>
   </si>
   <si>
@@ -121,21 +130,30 @@
     <t>ZEPAHUA</t>
   </si>
   <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>ARGAES</t>
   </si>
   <si>
+    <t>TENTZOHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
@@ -151,6 +169,9 @@
     <t>DOMINGUEZ</t>
   </si>
   <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
     <t>ROMAN</t>
   </si>
   <si>
@@ -160,6 +181,15 @@
     <t>APALE</t>
   </si>
   <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>ALMANZA</t>
+  </si>
+  <si>
     <t>JUAN ALBERTO</t>
   </si>
   <si>
@@ -175,6 +205,12 @@
     <t>ROSENDO DANIEL</t>
   </si>
   <si>
+    <t>GONZALO</t>
+  </si>
+  <si>
+    <t>EDGAR ARMANDO</t>
+  </si>
+  <si>
     <t>LUIS ANTONIO</t>
   </si>
   <si>
@@ -187,12 +223,18 @@
     <t>MARIA ISABEL</t>
   </si>
   <si>
+    <t>ALONSO ELIAS</t>
+  </si>
+  <si>
     <t>JESUS</t>
   </si>
   <si>
     <t>NATANAEL</t>
   </si>
   <si>
+    <t>ERIK JAIR</t>
+  </si>
+  <si>
     <t>GAMADIEL ABRAHAM</t>
   </si>
   <si>
@@ -203,6 +245,15 @@
   </si>
   <si>
     <t>PEDRO</t>
+  </si>
+  <si>
+    <t>JEAN PIERRE</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>MARIO</t>
   </si>
 </sst>
 </file>
@@ -986,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1027,10 +1078,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1050,10 +1101,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1073,10 +1124,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1096,10 +1147,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1119,10 +1170,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1136,16 +1187,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920153</v>
+        <v>18330051920149</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1159,16 +1210,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920020</v>
+        <v>18330051920152</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1182,16 +1233,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920157</v>
+        <v>18330051920153</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1205,16 +1256,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920162</v>
+        <v>18330051920020</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1228,16 +1279,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920166</v>
+        <v>18330051920157</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1251,16 +1302,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920169</v>
+        <v>18330051920162</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1274,16 +1325,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920178</v>
+        <v>18330051920161</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1297,16 +1348,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920180</v>
+        <v>18330051920166</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1320,16 +1371,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920181</v>
+        <v>18330051920169</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1343,24 +1394,185 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
+        <v>18330051920176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>18330051920178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920181</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
         <v>18330051920182</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920045</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920054</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920080</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
@@ -76,184 +76,184 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>VENEGAS</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>COCOTLE</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>GALAN</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>OROPEZA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>VENEGAS</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ARGAES</t>
-  </si>
-  <si>
-    <t>TENTZOHUA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>AMECA</t>
   </si>
   <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>ALMANZA</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>ROSENDO DANIEL</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>NICIO</t>
+  </si>
+  <si>
+    <t>CUAQUEHUA</t>
+  </si>
+  <si>
+    <t>TZITZIHUA</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>CONSTANTINO</t>
+  </si>
+  <si>
+    <t>DAMIAN</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>LORENZO</t>
   </si>
   <si>
     <t>EDGAR ARMANDO</t>
   </si>
   <si>
-    <t>LUIS ANTONIO</t>
+    <t>EZRA</t>
+  </si>
+  <si>
+    <t>AMALIO JARET</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>SAUL BRANDON</t>
+  </si>
+  <si>
+    <t>ERIK JAIR</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>ANGEL ISMAEL</t>
+  </si>
+  <si>
+    <t>DIEGO APOLINAR</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>CRISTIAN MAURICIO</t>
+  </si>
+  <si>
+    <t>EMANUEL</t>
+  </si>
+  <si>
+    <t>RIGOBERTO</t>
+  </si>
+  <si>
+    <t>MARIA TERESA</t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
   </si>
   <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>ALONSO ELIAS</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>ERIK JAIR</t>
-  </si>
-  <si>
-    <t>GAMADIEL ABRAHAM</t>
-  </si>
-  <si>
-    <t>ANGEL ISMAEL</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>JEAN PIERRE</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>MARIO</t>
+    <t>IRAIS</t>
+  </si>
+  <si>
+    <t>AZAEL</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>YAHIR ALEJANDRO</t>
+  </si>
+  <si>
+    <t>CARLOS MANUEL</t>
   </si>
 </sst>
 </file>
@@ -657,19 +657,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>63.89</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -683,19 +683,19 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -803,16 +803,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>52.78</v>
+      </c>
+      <c r="H2">
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -826,16 +829,19 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>73.08</v>
+      </c>
+      <c r="H3">
+        <v>8.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -872,16 +878,19 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>31.82</v>
+      </c>
+      <c r="H5">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>
@@ -937,19 +946,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>63.89</v>
+        <v>66.67</v>
       </c>
       <c r="H2">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -963,19 +972,19 @@
         <v>26</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1027,7 +1036,7 @@
         <v>54.55</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1072,13 +1081,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920143</v>
+        <v>18330051920152</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -1095,13 +1104,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920141</v>
+        <v>18330051920159</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -1118,13 +1127,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920138</v>
+        <v>18330051920069</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -1141,13 +1150,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920146</v>
+        <v>18330051920170</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -1164,13 +1173,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920148</v>
+        <v>18330051920177</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1187,13 +1196,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920149</v>
+        <v>18330051920176</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>62</v>
@@ -1210,13 +1219,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920152</v>
+        <v>17330051920160</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -1225,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1233,13 +1242,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920153</v>
+        <v>18330051920017</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -1248,7 +1257,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1256,13 +1265,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920020</v>
+        <v>18330051920180</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
         <v>65</v>
@@ -1274,18 +1283,18 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920157</v>
+        <v>18330051920002</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>66</v>
@@ -1294,15 +1303,15 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920162</v>
+        <v>18330051920003</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1317,21 +1326,21 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920161</v>
+        <v>18330051920004</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
@@ -1340,18 +1349,18 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920166</v>
+        <v>18330051920006</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -1363,18 +1372,18 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920169</v>
+        <v>18330051920010</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -1386,18 +1395,18 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920176</v>
+        <v>18330051920015</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -1409,18 +1418,18 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920178</v>
+        <v>18330051920018</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -1432,18 +1441,18 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>18330051920180</v>
+        <v>18330051920019</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1455,21 +1464,21 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>18330051920181</v>
+        <v>18330051920038</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
@@ -1478,21 +1487,21 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18330051920182</v>
+        <v>18330051920024</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>75</v>
@@ -1501,21 +1510,21 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>18330051920045</v>
+        <v>18330051920027</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
@@ -1524,15 +1533,15 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>18330051920054</v>
+        <v>18330051920451</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -1547,18 +1556,18 @@
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>18330051920080</v>
+        <v>18330051920036</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
@@ -1570,10 +1579,10 @@
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
+++ b/docentes/Hernández Mendoza Delfina - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>Mat</t>
   </si>
@@ -94,99 +94,39 @@
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
     <t>VENEGAS</t>
   </si>
   <si>
-    <t>ANASTACIO</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>BAEZ</t>
-  </si>
-  <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>COCOTLE</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>GALAN</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ZAMUDIO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
   </si>
   <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ZAMUDIO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>AMECA</t>
   </si>
   <si>
-    <t>NAVARRO</t>
-  </si>
-  <si>
     <t>NICIO</t>
   </si>
   <si>
-    <t>CUAQUEHUA</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>CONSTANTINO</t>
-  </si>
-  <si>
-    <t>DAMIAN</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
     <t>LORENZO</t>
   </si>
   <si>
@@ -208,49 +148,10 @@
     <t>ERIK JAIR</t>
   </si>
   <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>ANGEL ISMAEL</t>
   </si>
   <si>
-    <t>DIEGO APOLINAR</t>
-  </si>
-  <si>
-    <t>PABLO</t>
-  </si>
-  <si>
-    <t>CRISTIAN MAURICIO</t>
-  </si>
-  <si>
     <t>EMANUEL</t>
-  </si>
-  <si>
-    <t>RIGOBERTO</t>
-  </si>
-  <si>
-    <t>MARIA TERESA</t>
-  </si>
-  <si>
-    <t>HUMBERTO</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>IRAIS</t>
-  </si>
-  <si>
-    <t>AZAEL</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>YAHIR ALEJANDRO</t>
   </si>
   <si>
     <t>CARLOS MANUEL</t>
@@ -855,16 +756,19 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>48.28</v>
+      </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1010,7 +914,7 @@
         <v>48.28</v>
       </c>
       <c r="H4">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1046,7 +950,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1087,10 +991,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1110,10 +1014,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1133,10 +1037,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1156,10 +1060,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1179,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1202,10 +1106,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1219,39 +1123,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>17330051920160</v>
+        <v>18330051920180</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920017</v>
+        <v>18330051920006</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1260,328 +1164,29 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920180</v>
+        <v>18330051920036</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>18330051920003</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>18330051920004</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>18330051920006</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>18330051920010</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>18330051920015</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>18330051920018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>18330051920019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>18330051920038</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>18330051920024</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>18330051920027</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>18330051920451</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>18330051920036</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23">
         <v>1</v>
       </c>
     </row>
